--- a/brinson_sheet.xlsx
+++ b/brinson_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\PROGRAMMING\P&amp;L CALC, BRINSON PERFORMANCE EVALUATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\REPO\P&amp;L CALC, BRINSON PERFORMANCE EVALUATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EE9969-9D8C-4596-9F03-893992CD5D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FC3484-A55D-4A2C-BACA-DDC76F4E5A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AE29B302-8747-49CE-9FC8-91D9627D1454}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Portfolio weight</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Benchmark return</t>
   </si>
   <si>
-    <t>Factors</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -89,13 +86,43 @@
     <t>Industrials</t>
   </si>
   <si>
-    <t>INDUSTRY</t>
-  </si>
-  <si>
-    <t>CURRENCY</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CURRENCY AGGREGATE</t>
+  </si>
+  <si>
+    <t>INDUSTRY AGGREGATE</t>
+  </si>
+  <si>
+    <t>COUNTRY AGGREGATE</t>
   </si>
 </sst>
 </file>
@@ -456,44 +483,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1735D509-9C57-40ED-A7B6-5C5F5F6AAB22}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -504,13 +535,16 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -521,13 +555,16 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -538,13 +575,16 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -555,13 +595,16 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -572,13 +615,16 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -589,13 +635,16 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -606,13 +655,16 @@
       <c r="E8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -623,13 +675,16 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -640,13 +695,16 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -657,13 +715,16 @@
       <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -674,13 +735,16 @@
       <c r="E12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -691,13 +755,16 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -708,13 +775,16 @@
       <c r="E14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -725,13 +795,16 @@
       <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -741,6 +814,110 @@
       </c>
       <c r="E16">
         <v>15</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <f>C16+1</f>
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:F20" si="0">D16+1</f>
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C20" si="1">C17+1</f>
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/brinson_sheet.xlsx
+++ b/brinson_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EYKS\Documents\UNDERGRADUATE\GHOSAL\REPO\P&amp;L CALC, BRINSON PERFORMANCE EVALUATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FC3484-A55D-4A2C-BACA-DDC76F4E5A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11323E34-0F79-4769-9848-D9D5EB675A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AE29B302-8747-49CE-9FC8-91D9627D1454}"/>
+    <workbookView xWindow="15345" yWindow="4680" windowWidth="21600" windowHeight="11835" xr2:uid="{AE29B302-8747-49CE-9FC8-91D9627D1454}"/>
   </bookViews>
   <sheets>
     <sheet name="Brinson attribution" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Portfolio weight</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Segments</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>CURRENCY AGGREGATE</t>
   </si>
   <si>
@@ -123,13 +120,37 @@
   </si>
   <si>
     <t>COUNTRY AGGREGATE</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Allocation effect</t>
+  </si>
+  <si>
+    <t>Selection effect</t>
+  </si>
+  <si>
+    <t>Interaction effect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,16 +166,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,16 +211,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1735D509-9C57-40ED-A7B6-5C5F5F6AAB22}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -497,9 +572,12 @@
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -518,409 +596,1049 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
+        <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
+        <f>SUM(D3:D10)</f>
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="8">
+        <f>SUMPRODUCT(C3:C10,E3:E10)</f>
+        <v>2.0364999999999994E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUMPRODUCT(D3:D10,F3:F10)</f>
+        <v>-3.1060000000000046E-3</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SUM(G3:G10)</f>
+        <v>2.1012000000000006E-2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <f>SUM(I3:I10)</f>
+        <v>-2.0267000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="13">
+        <f>(10)/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <f>(C3 - D3)*(F3 -$F$2)</f>
+        <v>-2.6003000000000003E-3</v>
+      </c>
+      <c r="H3" s="6">
+        <f>C3 * (E3 - F3)</f>
+        <v>1.3800000000000002E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <f>(C3 - D3) * (E3 - F3)</f>
+        <v>-1.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" ref="G4:G16" si="0">(C4 - D4)*(F4 -$F$2)</f>
+        <v>2.1292439999999999E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H25" si="1">C4 * (E4 - F4)</f>
+        <v>8.0000000000000015E-4</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I25" si="2">(C4 - D4) * (E4 - F4)</f>
+        <v>-1.0400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>7.46E-2</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.33118E-3</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>9.4000000000000062E-5</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.8200000000000013E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1553000000000002E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
+        <v>-4.1787999999999992E-4</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="E8" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0924200000000004E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4375000000000001E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3750000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.2621200000000007E-3</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.6999999999999979E-4</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999993E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C10" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="11">
+        <f>(C10 - D10)*(F10 -$F$2)</f>
+        <v>5.0833200000000014E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.7200000000000002E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.4960000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <f>SUM(C12:C15)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <f>SUM(D12:D15)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <f>SUMPRODUCT(C12:C15,E12:E15)</f>
+        <v>2.6398000000000001E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <f>SUMPRODUCT(D12:D15,F12:F15)</f>
+        <v>3.0800000000000004E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <f>SUM(G12:G15)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <f>SUM(I12:I15)</f>
+        <v>-3.1959999999999975E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="E12" s="12">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="11">
+        <f>(C12 - D12)*(F12 - $F$11)</f>
+        <v>1.1519999999999998E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
+        <v>6.2399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="E13" s="12">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" ref="G13:G15" si="3">(C13 - D13)*(F13 - $F$11)</f>
+        <v>-1.1880000000000007E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>5.1810000000000007E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7270000000000005E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="E14" s="12">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="3"/>
+        <v>3.3280000000000011E-3</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>8.7779999999999993E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>-6.6879999999999995E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C15" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="12">
+        <v>-5.4100000000000002E-2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="3"/>
+        <v>-2.9200000000000021E-4</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.3961E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1410000000000012E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <f>SUM(C17:C25)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D16" s="14">
+        <f>SUM(D17:D25)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <f>SUMPRODUCT(C17:C25,E17:E25)</f>
+        <v>2.6610999999999996E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <f>SUMPRODUCT(D17:D25,F17:F25)</f>
+        <v>5.6580999999999999E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(G17:G25)</f>
+        <v>-2.4676E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f>SUM(I17:I25)</f>
+        <v>1.3519E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
-        <f>C16+1</f>
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:F20" si="0">D16+1</f>
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="E17" s="12">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <f>(C17 - D17)*(F17 - $F$16)</f>
+        <v>1.4975200000000004E-3</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.8900000000000007E-3</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.1120000000000002E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18:C20" si="1">C17+1</f>
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="12">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" ref="G18:G25" si="4">(C18 - D18)*(F18 - $F$16)</f>
+        <v>-9.3034899999999993E-3</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4429999999999998E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3948999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="E19" s="12">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="4"/>
+        <v>-3.629470000000001E-3</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.5930000000000002E-3</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9030000000000011E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
+      <c r="C20" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1.54E-2</v>
+      </c>
+      <c r="F20" s="12">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="4"/>
+        <v>-1.5234299999999999E-3</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7280000000000002E-3</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="2"/>
+        <v>2.8800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E21" s="12">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="4"/>
+        <v>-2.2605600000000009E-3</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>8.2799999999999953E-4</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.3119999999999981E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="E22" s="12">
+        <v>-2.8899999999999999E-2</v>
+      </c>
+      <c r="F22" s="12">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="4"/>
+        <v>1.9676000000000003E-4</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>-9.0399999999999994E-3</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="2"/>
+        <v>-3.6160000000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="E23" s="12">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="4"/>
+        <v>-2.47247E-3</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.6850000000000003E-3</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="2"/>
+        <v>4.3550000000000004E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="E24" s="12">
+        <v>-2.5600000000000001E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="4"/>
+        <v>4.4080999999999987E-4</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.6200000000000009E-4</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="2"/>
+        <v>3.8099999999999994E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="E25" s="12">
+        <v>-8.5400000000000004E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <v>-5.2299999999999999E-2</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="4"/>
+        <v>-7.6216700000000014E-3</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.3100000000000004E-3</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="2"/>
+        <v>-2.3170000000000005E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I3:I10 H12:I15 H17:I25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I10">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G15">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G25">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G25">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
